--- a/Firmen-Liste.xlsx
+++ b/Firmen-Liste.xlsx
@@ -424,239 +424,204 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>company_1</t>
+          <t>1. Mechatroniker | Industriemechaniker (AMI)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>company_2</t>
+          <t>2. Industriekaufleute | Technische Produktdesigner (AMI)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>company_3</t>
+          <t>3. Justizfachangestellte</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>company_4</t>
+          <t>4. Erzieher | Höhere Berufsfachschule Sozialassistenz</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>company_5</t>
+          <t>5. Kosmetiker</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>company_6</t>
+          <t>6. Zerspanungsmechaniker | Konstruktionsmechaniker | Industriemechaniker (Böhmer)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>company_7</t>
+          <t>7. Anlagenmechaniker SHK</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>company_8</t>
+          <t>8. Berufskraftfahrer | Fachkraft für Lagerlogistik (Brucherseifer)</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>company_9</t>
+          <t>9. Pflegefachkraft (DRK Kirchen)</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>company_10</t>
+          <t>10. Altenpflegehelfer | Pflegefachkraft (St. Vinzenzhaus)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>company_11</t>
+          <t>11. Forstwirt</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>company_12</t>
+          <t>12. Betonbauer (Fritz Meyer)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>company_13</t>
+          <t>13. Medizinische Fachangstellte</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>company_14</t>
+          <t>14. Straßenbauer (Gebr. Schmidt)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>company_15</t>
+          <t>15. Fliesenleger (Gottfried Hof)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>company_16</t>
+          <t>16. Maschinen u. Anlagenführer (Horn und co.)</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>company_17</t>
+          <t>17. Elektroniker Energie u. Gebäudetechnik | Mechatroniker Kältetechnik (Hüsch)</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>company_18</t>
+          <t>18. Holzmechaniker | Konstruktionsmechaniker (Kleusberg)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>company_19</t>
+          <t>19. Technischer Produktdesigner (Kyocera)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>company_20</t>
+          <t>20. Werkzeugmechaniker (Kyocera)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>company_21</t>
+          <t>21. Mechatroniker (Kyocera)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>company_22</t>
+          <t>22. Kauffrau/-mann im Einzelhandel (Norma)</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>company_23</t>
+          <t>23. Koch (Parkhotel Hbg.)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>company_24</t>
+          <t>24. Polizist</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>company_25</t>
+          <t>25. Kauffrau für Büromanagement, Versicherung u. Finanzen (Provinzial)</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>company_26</t>
+          <t>26. Mediengestalter (SSI Schäfer)</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>company_27</t>
+          <t>27. Kaufmann für E-Commerce (SSI Schäfer)</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>company_28</t>
+          <t>28. Fachinformatiker (SSI Schäfer)</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>company_29</t>
+          <t>29. Infobus zu Technik und Robotik (TraForce)</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>company_30</t>
+          <t>30. Dachdecker u. Kaufmann für Büromanagement (Weber)</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>company_31</t>
+          <t>31. Fachkraft Fahrbetrieb | Berufskraftfahrer | Kfz Mechatroniker (Westerwaldbus)</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>company_32</t>
+          <t>32. Physiotherapeut (Wohlgetan)</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>company_33</t>
+          <t>33. Elektroniker Betriebstechnik (Westnetz)</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>company_34</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>company_35</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>company_36</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>company_37</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>company_38</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>company_39</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>company_40</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>company_41</t>
+          <t>34. Tischler (Wünsche)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weber Lasse</t>
+          <t xml:space="preserve">Dehne Abygale </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mia Isabella krah</t>
+          <t>Kielmann Lena</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Loris hajra</t>
+          <t>Leipelt Tim</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eberlein Lucy</t>
+          <t>Niepenberg Lilja</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lika Gottstein </t>
+          <t>Gottstein Lika</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritzler Maxim </t>
+          <t>Duchow Daimon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -666,22 +631,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schäfers,Lennox</t>
+          <t>Hubert Ron</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Jakob Laura</t>
+          <t>Hebel,Neele</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ilaria Scharrenbach </t>
+          <t>Karabulut Beyza</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlosser linus </t>
+          <t>Klinge Noah</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -691,7 +656,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Zlobin, Julia</t>
+          <t>Knobe Charlotte</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -701,119 +666,119 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batuhan Tunc </t>
+          <t xml:space="preserve">Rama Leotrim </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Liam Hanser</t>
+          <t>Hanser Liam</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>Albero Lukas</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Daoad Muhammad</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Shirzad Hazratwali</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kotaidis Theodor </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Albero Lukas</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Graf, Justus</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Farnschläder Lara</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfaid Odai </t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lotz Stella </t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Mies Johanna</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Sivis, Furkan</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Muratovic Aldin</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Mailinger Til</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Lück Vinzenz</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Brucherseifer Louis</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Krieger Matthias</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>Schneider Tom</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Dikow Julia</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theodor </t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Tobias Brunnet</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Ben hüsch</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Schermoly Tamilo</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Ahmad abo</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neda Cantürk </t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michalska Lena </t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Mies Johanna</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boshnakova iva </t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Aldin Muratovic</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Penner Josias</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malte </t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Tobias Brunnet</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zick Louisa </t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schäfer Lukas </t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ben Henseler </t>
+          <t>Henseler Ben</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köhler David </t>
+          <t>Acar Arda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hebel,Neele</t>
+          <t>Maria Mazurenko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Giulietta Brancato</t>
+          <t>Hajra Loris</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -823,12 +788,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niepenberg Soley </t>
+          <t xml:space="preserve">Keune Elisa </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Daimon</t>
+          <t>Pagel Johann</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -838,47 +803,47 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Seibert </t>
+          <t>Sidibe Moussai</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hebel,Neele</t>
+          <t>Peter Jule</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Kämmerer Lara</t>
+          <t>Scharrenbach Ilaria</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Maus Jamie</t>
+          <t xml:space="preserve">Lindner Ben </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Takacs Markus</t>
+          <t>Balla Kantè</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüsch Paula </t>
+          <t>Hess joelina</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Abdullah Alshabib</t>
+          <t>Balla Kantè</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Takacs Markus</t>
+          <t xml:space="preserve">Tunc Batuhan </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Klinge Noah</t>
+          <t>Sidibe Moussai</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -888,37 +853,37 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Mulaki Anwar</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Althof Julius</t>
+          <t xml:space="preserve">Kotaidis Theodor </t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theodor </t>
+          <t>Idt,Lukas</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Ali Cakir</t>
+          <t>Hüsch Ben</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanbur, Sara Minel </t>
+          <t xml:space="preserve">Stockschläder Maximilian </t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Alex Farkas</t>
+          <t>Neicovcen Alexandr</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odai Alfaid </t>
+          <t>Klein Emil</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -928,79 +893,79 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meier Sophia </t>
+          <t>Mikayil Sol</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Krienke, Lukas</t>
+          <t xml:space="preserve">Michalska Lena </t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Krienke, Lukas</t>
+          <t>Hasenkampf Kirill</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Til mailinger</t>
+          <t>Jaber Joshua</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mika würden </t>
+          <t>Korf Samuel</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Andreas weber</t>
+          <t>Weber Andreas</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Vincent Sterle</t>
+          <t>Winter Gabriel</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Schneider Tom</t>
+          <t>Fischer Sam</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farbod Zolfaghari </t>
+          <t>Trambo,Vincent</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dehne abygale </t>
+          <t xml:space="preserve">Köhler David </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acar Sinem</t>
+          <t>Krah Mia Isabelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nell Louis</t>
+          <t>Tim Philipsohn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trampenau Nele </t>
+          <t>Reifenrath Sara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Seibel Devin</t>
+          <t>Heer Mia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Idt,Lukas</t>
+          <t xml:space="preserve">Fritzler Maxim </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1008,59 +973,64 @@
           <t>Kohlhaas Janis</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Schäfers,Lennox</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Blickhäuser </t>
+          <t>Abbate Aurora</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kappes Fiona </t>
+          <t>Kämmerer Lara</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linke, Moritz </t>
+          <t>Weber Niklas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Lars aßenmacher</t>
+          <t>Mikayil Sol</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lennartz Paula </t>
+          <t>Zlobin, Julia</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Ahmad abo</t>
+          <t>Abdullah Alshabib</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rama Leotrim </t>
+          <t>Takacs Markus</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ben hüsch</t>
+          <t>Hubert Ron</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Vierbuchen Alysha</t>
+          <t>Daoad Muhammad</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Mohammed Hasan Alhaj</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Otremba Jonah</t>
+          <t>Althof Julius</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1070,42 +1040,42 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joel uebach </t>
+          <t>Wolf Jayden</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Joshua mijota</t>
+          <t>Schermoly Tamilo</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kramer Bjarne </t>
+          <t>Broev Alik</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Becher Rosa</t>
+          <t>Kunitschenko Lionel</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Semjank Julian</t>
+          <t xml:space="preserve">Michalska Lena </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Meier Sophia </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>Krienke, Lukas</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meier Sophia </t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>Schnabel Mateo</t>
+          <t>Amini Masiullah</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1115,59 +1085,59 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinzenz Lück </t>
+          <t xml:space="preserve">Kerkenberg Malte </t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis brucherseifer </t>
+          <t>Abdullrahman Alohtman</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Gabriel Winter</t>
+          <t xml:space="preserve">Zick Louisa </t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Avrami </t>
+          <t xml:space="preserve">Schäfer Lukas </t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Trambo,(Vincent)Ronja</t>
+          <t xml:space="preserve">Zolfaghari Farbod </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arda Acar</t>
+          <t>Groß Valentin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröder, Lina </t>
+          <t>Weronika Deisner</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Otremba Jonah</t>
+          <t>Nell Louis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reifenrath Sara</t>
+          <t xml:space="preserve">Trampenau Nele </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Schmidt Mira</t>
+          <t xml:space="preserve">Stir Giulia </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kramer Bjarne </t>
+          <t>Idt,Lukas</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1175,24 +1145,29 @@
           <t>Mockenhaupt Miles</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wierscheim Maximilian</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily bleeser </t>
+          <t xml:space="preserve">Mies Samira </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Zlobin, Julia</t>
+          <t>Reese Julia</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Lars aßenmacher</t>
+          <t>Abdullah Alshabib</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Köhler David </t>
+          <t>Shirzad Hazratwali</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1202,139 +1177,139 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joel uebach </t>
+          <t>Mohammadi Wahidullah</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Loris hajra</t>
+          <t>Hermann Leon-Joel</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Klinge Noah</t>
+          <t>Hüsch Ben</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batuhan Tunc </t>
+          <t>Vierbuchen Alysha</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Schäfers,Lennox</t>
+          <t>Dikow Julia</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Dikow Julia</t>
+          <t>Trambo,Vincent</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Idt,Lukas</t>
+          <t>Brunnet Tobias</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Kohlhaas Janis</t>
+          <t>Cakir Ali</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Jan Reinschmidt</t>
+          <t>Mijota Joshua</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Farnschläder Lara</t>
+          <t xml:space="preserve">Seibert Elias </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Schnabel Mateo</t>
+          <t>Neuser Elias</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linda Härter </t>
+          <t>Härter Linda</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Jaber Joshua</t>
+          <t>Shikou Hesham</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stir Giulia </t>
+          <t>Leipelt Tim</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Mazunin, Velina</t>
+          <t>Ata, Aleyna</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Jaber Joshua</t>
+          <t>Penner Josias</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Samuel Korf</t>
+          <t xml:space="preserve">Würden Mika </t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linke, Moritz </t>
+          <t>Brunnet Tobias</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias Krieger </t>
+          <t>Böhmer Phil</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Heckel Maxime</t>
+          <t>Seibert Leon</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Holzschuh luiz</t>
+          <t>Holzschuh Luiz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Valentin Groß</t>
+          <t>Linus Rödder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rotha, Annalena</t>
+          <t>Ata, Aleyna</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joshua Sommer </t>
+          <t>Specht, Daniel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hiller Florens</t>
+          <t>Eberlein Lucy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elisa Keune </t>
+          <t>Schneeweiß Selina</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jaber Joshua</t>
+          <t>Mailinger Til</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1342,29 +1317,34 @@
           <t>Stangier Louis</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maria Mazurenko</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Symalla Carlotta</t>
+          <t>Fuhr Alisha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jakob Laura</t>
+          <t>Knobe Charlotte</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lindner Ben </t>
+          <t xml:space="preserve">Linke, Moritz </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malte </t>
+          <t>Takacs Markus</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mies Samira </t>
+          <t xml:space="preserve">Hüsch Paula </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1374,77 +1354,87 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Justin Hennig</t>
+          <t>Hajra Loris</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Klinge Noah</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schlosser linus </t>
+          <t>Schneider Tom</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rama Leotrim </t>
+          <t>Korf Samuel</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krombach Béla </t>
+          <t>Geimer Sophia</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritzler Maxim </t>
+          <t>Hasenkampf Kirill</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Ahmad abo</t>
+          <t>Broev Alik</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Maximilian Stockschläder</t>
+          <t xml:space="preserve">Kanbur, Sara Minel </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joel uebach </t>
+          <t>Sobbeck Fiete</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zdzislaw szydelko </t>
+          <t>Mazunin, Velina</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lotz Stella </t>
+          <t>Saltan Emircan</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Aldin Muratovic</t>
+          <t>Krienke, Lukas</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Jan Reinschmidt</t>
+          <t>Capa, Kübra</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Mazunin, Velina</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farbod Zolfaghari </t>
+          <t>Winter Gabriel</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Holzschuh luiz</t>
+          <t>Holzschuh Luiz</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levi hilger </t>
+          <t>Hilger Levi</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1454,79 +1444,84 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Arda Acar</t>
+          <t>Heckel Maxime</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malte </t>
+          <t>Pfeiffer Finn</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reifenrath Tom</t>
+          <t>Johanna Jacob</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charlott</t>
+          <t>Pala Eylem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Böhmer Mara</t>
+          <t>Geimer Sophia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Niepenberg Lilja</t>
+          <t>Bischel Debora</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Broev </t>
+          <t xml:space="preserve">Hoffmann, Jule </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Til mailinger</t>
+          <t xml:space="preserve">Kramer Bjarne </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dick Simon</t>
+          <t>Diallo Souleymane</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Weronika Deisner</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mies Samira </t>
+          <t xml:space="preserve">Schröder, Lina </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Bleeser Emily</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Abdullah Alshabib</t>
+          <t>Maus Jamie</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ben Henseler </t>
+          <t>Aßenmacher Lars</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kramer Bjarne </t>
+          <t>Reifenröther Mia</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Luisa </t>
+          <t>Mailinger Til</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1534,201 +1529,246 @@
           <t xml:space="preserve">Schlosser linus </t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Klinge Noah</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Lukas </t>
+          <t>Daoad Muhammad</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Abdullah Alshabib</t>
+          <t>Neuser Elias</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Trambo,(Vincent)Ronja</t>
+          <t>Mijota Joshua</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Penner Josias</t>
+          <t xml:space="preserve">Weber Ben </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Mockenhaupt Miles</t>
+          <t>Abo Ahmad</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Hensel Hanna</t>
+          <t>Reinschmidt Jan</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t xml:space="preserve">Boshnakova Iva </t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Löwen Marleen </t>
+          <t>Hilger Levi</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Mousavi, ilya</t>
+          <t>Semjank Julian</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Fiete Sobbeck</t>
+          <t>Reinscheid Nahla</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michalska Lena </t>
+          <t>Abdullrahman Alohtman</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Krienke, Lukas</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Tom Luis neibert</t>
+          <t>Sommer Joshua</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Reifenrath Tom</t>
+          <t>Korf Jonas</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Joshua mijota</t>
+          <t xml:space="preserve">Linke, Moritz </t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Schütz Fabienne</t>
+          <t>Sterle Vincent</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Valentin Groß</t>
+          <t>Acar Arda</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis brucherseifer </t>
+          <t>Brucherseifer Louis</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Schermoly Tamilo</t>
+          <t>Weber Lasse</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sivis, Furkan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Justin Hennig</t>
+          <t>Sommer Joshua</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Charlott</t>
+          <t>Schumacher Charlott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t xml:space="preserve">Niepenberg Soley </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sidibe Moussai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sterle Vincent</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Schneider Laura</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Weitershagen Mia</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kappes Fiona </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schlosser linus </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Schneider Laura</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Hassan Yara</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Abo Ahmad</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Hennig Justin</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kramer Bjarne </t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Moftakhar, Ilya</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Schäfers,Lennox</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Pagel Johann</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Brunnet Tobias</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Kohlhaas Janis</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Bastian Horneck</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Gielen Marlon</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Cantürk Neda</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Medine Tekel</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Icyüz Aaliyah </t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Liam Hanser</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Acar Sinem</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emily bleeser </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Pfeiffer Finn</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Lars aßenmacher</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilaria Scharrenbach </t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Daimon</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zdzislaw szydelko </t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Nell Louis</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elias Avrami </t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Alex Farkas</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linda Härter </t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Wolf Jannis</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Mazunin, Velina</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Wolf Jannis</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Löwen Marleen </t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Maximilian Stockschläder</t>
+          <t xml:space="preserve">Boshnakova Iva </t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Schnabel Mateo</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Gabriel Winter</t>
+          <t xml:space="preserve">Alfaid Odai </t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1738,69 +1778,104 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Reifenrath Tom</t>
+          <t>Seibel Devin</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Mazunin, Velina</t>
+          <t>Schumacher Charlott</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Stangier Louis</t>
+          <t>Groß Valentin</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Pfeiffer Finn</t>
+          <t>Mohammed Hasan Alhaj</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maximilian Stockschläder</t>
+          <t>Kempf Nils</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schröder, Lina </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mousavi, ilya</t>
+          <t>Otremba Jonah</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Renz Larissa</t>
+          <t>Klein Lea</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fehling Josephine</t>
+          <t>Schmidt Mira</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albero Lukas</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Batuhan Tunc </t>
+          <t>Farkas Alex</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Karabulut Beyza</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Rotha, Annalena</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mia Isabella krah</t>
+          <t>Reifenröther Mia</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Niklas Weber</t>
+          <t>Aßenmacher Lars</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kerkenberg Malte </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Symalla Carlotta</t>
+          <t xml:space="preserve">Lennartz Paula </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Wolf Jannis</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Hermann Leon-Joel</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Krombach Béla </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1810,7 +1885,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Ali Cakir</t>
+          <t>Shikou Hesham</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1820,47 +1895,47 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis brucherseifer </t>
+          <t xml:space="preserve">Uebach Louis </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Davis stangier</t>
+          <t>Kurt Halit</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis Groß </t>
+          <t>Heckel Maxime</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Luisa </t>
+          <t>Petry Julius</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Broev </t>
+          <t>Capa, Kübra</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Til mailinger</t>
+          <t>Jaber Joshua</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Schermoly Tamilo</t>
+          <t xml:space="preserve">Stir Giulia </t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias Krieger </t>
+          <t xml:space="preserve">Zolfaghari Farbod </t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Seibert </t>
+          <t xml:space="preserve">Kanbur, Sara Minel </t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1870,151 +1945,196 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Giulietta Brancato</t>
+          <t xml:space="preserve">Hoffmann, Jule </t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schütz , Mika </t>
+          <t>Böhmer Phil</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bogdan Panfil </t>
+          <t>Neicovcen Alexandr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rama Leotrim </t>
+          <t>Reifenrath Tom</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linus Rödder</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Geimer Sophia</t>
+          <t>Böhmer Mara</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mia legner</t>
+          <t>Schütz Fabienne</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Selina Schneeweiß</t>
+          <t>Fehling Josephine</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Linus Rödder</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daimon</t>
+          <t>Dick Simon</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Avdija Leon</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rotha, Annalena</t>
+          <t>Acar Sinem</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elisa Keune </t>
+          <t>Gina Strauch</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Klinge Noah</t>
+          <t>Pfeiffer Finn</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Aßenmacher Lars</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Schnabel Mateo</t>
+          <t>Gina Strauch</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uebach Louis </t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Balla Kantè</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunc Batuhan </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lindner Ben </t>
+          <t>Abdullah Alshabib</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t xml:space="preserve">Krombach Béla </t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>Penner Josias</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Alik Broev</t>
+          <t>Mockenhaupt Miles</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neda Cantürk </t>
+          <t xml:space="preserve">Schäfer Luisa </t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Fiete Sobbeck</t>
+          <t>Wolf Jannis</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Avrami </t>
+          <t xml:space="preserve">Löwen Marleen </t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Giulietta Brancato</t>
+          <t>Specht, Daniel</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t xml:space="preserve">BelauLea </t>
+          <t xml:space="preserve">Würden Mika </t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Aldin Muratovic</t>
+          <t>Mohammed Hasan Alhaj</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odai Alfaid </t>
+          <t>Yildiz Mustafa</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Weber Lasse</t>
+          <t>Stangier Louis</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Elias korkmaz</t>
+          <t>Heckel Maxime</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Hiller Florens</t>
+          <t>Gielen Marlon</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Davis stangier</t>
+          <t>Avrami Elias</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Jan Reinschmidt</t>
+          <t>Groß Linda</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Andreas weber</t>
+          <t>Lena krassmann</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sönmez Naomi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gardis Alexandra </t>
+          <t>Tim Schumacher</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2024,67 +2144,102 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">BelauLea </t>
+          <t>Wildeis Veronika</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jaber Joshua</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alex Farkas</t>
+          <t xml:space="preserve">Tunc Batuhan </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tim Schumacher</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Wisser, Ricarda-Louisa</t>
+          <t>Bleeser Emily</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bischel debora</t>
+          <t>Fuhr Alisha</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Lukas </t>
+          <t xml:space="preserve">Weber Ben </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Wierscheim Maximilian</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gardis Alexandra </t>
+          <t>Amini Masiullah</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schäfer Luisa </t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Duchow Daimon</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Groß Linda</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Ali Cakir</t>
+          <t>Altahan Omar</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Joshua mijota</t>
+          <t>Penner Josias</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Kempf Nils</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theodor </t>
+          <t>Kohlhaas Janis</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Vierbuchen Alysha</t>
+          <t>Cantürk Neda</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Seibert </t>
+          <t xml:space="preserve">Hasenkampf Viktoria </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Yildiz Mustafa</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanbur, Sara Minel </t>
+          <t>Zeycan, Kerim</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2094,64 +2249,74 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boshnakova iva </t>
+          <t>Schermoly Tamilo</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Mustafa Yildiz</t>
+          <t>Neibert Tom Luis</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Stangier Louis</t>
+          <t xml:space="preserve">Seibert Elias </t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Seibel Devin</t>
+          <t>Mijota Joshua</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trampenau Nele </t>
+          <t>Hebel,Neele</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Sandy Selishta</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Niklas Weber</t>
+          <t>Fischer Sam</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mia Isabella krah</t>
+          <t xml:space="preserve">Stockschläder Maximilian </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rotha, Annalena</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Becher Rosa</t>
+          <t>Brancato Guiletta</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bischel debora</t>
+          <t>Splitstößer Elli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stir Giulia </t>
+          <t xml:space="preserve">Broev Alina </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Vincent Sterle</t>
+          <t>Duchow Daimon</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seibert Elias </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2161,17 +2326,37 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Blickhäuser </t>
+          <t>Bischel Debora</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ben Henseler </t>
+          <t xml:space="preserve">Schäfer Lukas </t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Mulaki Anwar</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Weitershagen Mia</t>
+          <t>Kielmann Lena</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Korf Jonas</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Kielmann Lena</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schlosser linus </t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2181,770 +2366,1140 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinzenz Lück </t>
+          <t>Dikow Julia</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Avrami Elias</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Mockenhaupt Miles</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zdzislaw szydelko </t>
+          <t>Härter Linda</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boshnakova iva </t>
+          <t xml:space="preserve">Kramer Bjarne </t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Mustafa Yildiz</t>
+          <t>Schnabel Mateo</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Renz Larissa</t>
+          <t>Johanna Jacob</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Broev </t>
+          <t>Graf, Justus</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boshnakova Iva </t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joshua Sommer </t>
+          <t>Krieger Matthias</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kanbur, Sara Minel </t>
+          <t>Reifenrath Tom</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Heckel Maxime</t>
+          <t>Reifenrath Tom</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Semjank Julian</t>
+          <t>Hiller Florens</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Seibert Leon</t>
+          <t>Neuser Elias</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aleandr Neicovcen </t>
+          <t>Farnschläder Lara</t>
         </is>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Wolf Jayden</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amini Masiullah</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Seibert Leon</t>
+          <t>Sandy Selishta</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mia Legner </t>
+          <t>Korkmaz Aliya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mia Heer</t>
+          <t xml:space="preserve">Belau Lea </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Hanser Liam</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Weronika Deisner</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blickhäuser Alina </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Becker Isabella </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Henseler Ben</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t xml:space="preserve">Köhler David </t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Weitershagen Mia</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Fehling Josephine</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Weber Ben </t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Wisser, Ricarda-Louisa</t>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Broev Alik</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Würden Mika </t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schäfer Lukas </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Samuel Korf</t>
+          <t>Pagel Johann</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Geimer Sophia</t>
+          <t>Lück Vinzenz</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritzler Maxim </t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Farkas Alex</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Mustafa Yildiz</t>
+          <t>Klein Emil</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Tom Luis neibert</t>
+          <t>Mohammadi Wahidullah</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t>Reinscheid Nahla</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Schmidt Mira</t>
+          <t>Hassan Yara</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mika würden </t>
+          <t xml:space="preserve">Belau Lea </t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Abdullrahman Alohtman</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Arda Acar</t>
+          <t>Bastian Horneck</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Niklas Weber</t>
+          <t>Weber Lasse</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Weber Lasse</t>
+          <t>Shirzad Hazratwali</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Charlott</t>
+          <t>Rotha, Annalena</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elias Neuser </t>
+          <t xml:space="preserve">Schütz , Mika </t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Omar, Alaa</t>
+          <t>Reinschmidt Jan</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weber Andreas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Johanna Jacob</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hasenkampf Viktoria </t>
+          <t>Zeycan, Kerim</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Schütz Fabienne</t>
+          <t xml:space="preserve">Becher Emilia </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmann, Jule </t>
+          <t>Seibel Devin</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Andreas weber</t>
+          <t xml:space="preserve">Köhler David </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Karabulut Beyza</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröder, Lina </t>
+          <t>Wisser, Ricarda-Louisa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Wisser, Ricarda-Louisa</t>
+          <t>Krah Mia Isabelle</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vinzenz Lück </t>
+          <t>Kempf Nils</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Henseler Ben</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Mia Heer</t>
+          <t>Schnabel Mateo</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Kurt Halit</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rama Leotrim </t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Mia Heer</t>
+          <t xml:space="preserve">Lotz Stella </t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Brucherseifer Louis</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Mousavi, ilya</t>
+          <t>Wildeis Veronika</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Alik Broev</t>
+          <t xml:space="preserve">Uebach Louis </t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rente Lisa </t>
+          <t>Avrami Elias</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Schütz Fabienne</t>
+          <t>Wolf Jannis</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icyüz Aaliyah </t>
+          <t xml:space="preserve">Löwen Marleen </t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Specht, Daniel</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Dikow Julia</t>
+          <t>Mohammadi Wahidullah</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Altahan Omar</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Becker conner</t>
+          <t>Weber Lasse</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Selina Schneeweiß</t>
+          <t>Brancato Guiletta</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Stangier Davis</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bogdan Panfil </t>
+          <t>Panfil Bogdan</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Wierscheim Maximilian</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nell Louis</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rotha, Annalena</t>
+          <t>Moftakhar, Ilya</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becher Emilia </t>
+          <t>Hiller Florens</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Farnschläder Lara</t>
+          <t xml:space="preserve">Icyüz Aaliyah </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vincent Sterle</t>
+          <t>Sterle Vincent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tim Philipsohn</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mia Legner </t>
+          <t>Symalla Carlotta</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kappes Fiona </t>
+          <t xml:space="preserve">Keune Elisa </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Krombach Béla </t>
+          <t>Semjank Julian</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Mikayil Sol</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Böhmer Mara</t>
+          <t>Korkmaz Aliya</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Niepenberg Lilja</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Cakir Ali</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Geimer Sophia</t>
+          <t>Petry Julius</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Abbate Aurora</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Zlobin, Julia</t>
+          <t>Tim Philipsohn</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Davis stangier</t>
+          <t>Groß Linda</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becher Emilia </t>
+          <t>Hermann Leon-Joel</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t xml:space="preserve">BelauLea </t>
+          <t>Moftakhar, Ilya</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niepenberg Soley </t>
+          <t>Muratovic Aldin</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Capa, Kübra</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Gabriel Winter</t>
+          <t>Reifenröther Mia</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Reese Julia</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Holzschuh luiz</t>
+          <t>Holzschuh Luiz</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Schmidt Mira</t>
+          <t>Mazunin, Velina</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Saltan Emircan</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>Farnschläder Lara</t>
+          <t>Weber Niklas</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Schermoly Tamilo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sivis, Furkan</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hebel,Neele</t>
+          <t>Hennig Justin</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lika Gottstein </t>
+          <t>Pala Eylem</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zick Louisa </t>
+          <t>Sönmez Naomi</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ben hüsch</t>
+          <t>Hanser Liam</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Mia legner</t>
+          <t>Jakob Laura</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mia legner</t>
+          <t xml:space="preserve">Becher Emilia </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marlon Gielen </t>
+          <t>Kunitschenko Lionel</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Omar, Alaa</t>
+          <t xml:space="preserve">Gardis Alexandra </t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Trambo,Vincent</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Szydelko Zdzislaw</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Farbod Zolfaghari </t>
+          <t>Korf Jonas</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Hasenkampf Kirill</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Loris hajra</t>
+          <t>Stangier Davis</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hasenkampf Viktoria </t>
+          <t>Panfil Bogdan</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Elias korkmaz</t>
+          <t>Korkmaz Elias</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>Wolf Jannis</t>
+          <t>Bastian Horneck</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Bischel debora</t>
+          <t xml:space="preserve">Broev Alina </t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meier Sophia </t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joshua Sommer </t>
+          <t>Böhmer Phil</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Weber Niklas</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Korkmaz Elias</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Niepenberg Lilja</t>
+          <t>Schütz Fabienne</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Stangier Louis</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aleandr Neicovcen </t>
+          <t xml:space="preserve">Kerkenberg Malte </t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rama Leotrim </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Gina Strauch</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Acar Sinem</t>
+          <t xml:space="preserve">Gardis Alexandra </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rente Lisa </t>
+          <t>Legner Mia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alina Blickhäuser </t>
+          <t>Klein Lea</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hüsch Ben</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hüsch Paula </t>
+          <t>Heer Mia</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily bleeser </t>
+          <t>Zlobin, Julia</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Valentin Groß</t>
+          <t>Kurt Halit</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Symalla Carlotta</t>
+          <t>Legner Mia</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindner Ben </t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lotz Stella </t>
+          <t>Otremba Jonah</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zolfaghari Farbod </t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Mockenhaupt Miles</t>
+          <t>Tim Schumacher</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Heckel Maxime</t>
+          <t>Stangier Davis</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levi hilger </t>
+          <t>Szydelko Zdzislaw</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mies Samira </t>
+          <t>Ata, Aleyna</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Niepenberg Lilja</t>
+          <t>Sobbeck Fiete</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Reinschmidt Jan</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Tom Luis neibert</t>
+          <t xml:space="preserve">Alfaid Odai </t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Diallo Souleymane</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Becker Conner</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Maus Jamie</t>
+          <t xml:space="preserve">Hasenkampf Viktoria </t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Hiller Florens</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mika würden </t>
+          <t>Diallo Souleymane</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Knobe Charlotte</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pala Eylem</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Becker conner</t>
+          <t xml:space="preserve">Schäfer Luisa </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dehne abygale </t>
+          <t>Schneider Laura</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becker Isabella </t>
+          <t>Eberlein Lucy</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Weber Andreas</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Mies Johanna</t>
+          <t xml:space="preserve">Meier Sophia </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becher Emilia </t>
+          <t>Wisser, Ricarda-Louisa</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Semjank Julian</t>
+          <t>Lück Vinzenz</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Otremba Jonah</t>
+          <t xml:space="preserve">Dehne Abygale </t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Bleeser Emily</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Trambo,(Vincent)Ronja</t>
+          <t>Nell Louis</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Korf Samuel</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Reifenrath Sara</t>
+          <t>Szydelko Zdzislaw</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aleandr Neicovcen </t>
+          <t>Abo Ahmad</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Becker conner</t>
+          <t>Meisner Fabio</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Hess joelina</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Icyüz Aaliyah </t>
+          <t>Saltan Emircan</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stockschläder Maximilian </t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias Krieger </t>
+          <t>Sommer Joshua</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Kunitschenko Lionel</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Hilger Levi</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marlon Gielen </t>
+          <t>Schneeweiß Selina</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>Takacs Markus</t>
+          <t>Omar, Alaa</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Krah Mia Isabelle</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lena krassmann</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Samuel Korf</t>
+          <t>Acar Sinem</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Seibel Devin</t>
+          <t>Altahan Omar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t xml:space="preserve">Blickhäuser Alina </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Reifenrath Sara</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Elias korkmaz</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Becker Isabella </t>
+          <t>Peter Jule</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Weber Ben </t>
+          <t>Groß Valentin</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmann, Jule </t>
+          <t xml:space="preserve">Mies Samira </t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Tobias Brunnet</t>
+          <t>Cakir Ali</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kotaidis Theodor </t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trampenau Nele </t>
+          <t>Sandy Selishta</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marlon Gielen </t>
+          <t>Neibert Tom Luis</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t>Becher Rosa</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Renz Larissa</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linda Härter </t>
+          <t xml:space="preserve">Niepenberg Soley </t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Muratovic Aldin</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Levi hilger </t>
+          <t>Neibert Tom Luis</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Pfeiffer Finn</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stir Giulia </t>
+          <t>Mies Johanna</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>Althof Julius</t>
+          <t>Takacs Markus</t>
         </is>
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Zeycan, Kerim</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hebel,Neele</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schröder, Lina </t>
+          <t>Becker Conner</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michalska Lena </t>
+          <t>Renz Larissa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Renz Larissa</t>
+          <t xml:space="preserve">Zick Louisa </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lennartz Paula </t>
+          <t>Korkmaz Elias</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Alisha Fuhr</t>
+          <t xml:space="preserve">Hüsch Paula </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Liam Hanser</t>
+          <t>Maria Mazurenko</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lika Gottstein </t>
+          <t>Medine Tekel</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Nell Louis</t>
+          <t>Geimer Sophia</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hassan Yara</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elisa Keune </t>
+          <t>Gottstein Lika</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bogdan Panfil </t>
+          <t>Farkas Alex</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis Groß </t>
+          <t xml:space="preserve">Rente Lisa </t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Mulaki Anwar</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Fiete Sobbeck</t>
+          <t>Niepenberg Lilja</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Fischer Sam</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Odai Alfaid </t>
+          <t>Winter Gabriel</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Hess joelina</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoffmann, Jule </t>
+          <t xml:space="preserve">Stir Giulia </t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis Groß </t>
+          <t>Althof Julius</t>
         </is>
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Wolf Jayden</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hubert Ron</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schäfer Luisa </t>
+          <t>Abbate Aurora</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lotz Stella </t>
+          <t>Jakob Laura</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eberlein Lucy</t>
+          <t>Becher Rosa</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2954,32 +3509,42 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eberlein Lucy</t>
+          <t xml:space="preserve">Lennartz Paula </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trampenau Nele </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ilaria Scharrenbach </t>
+          <t>Scharrenbach Ilaria</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Hiller Florens</t>
+          <t>Shikou Hesham</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Kohlhaas Janis</t>
+          <t>Meisner Fabio</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Fehling Josephine</t>
+          <t>Avdija Leon</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Alik Broev</t>
+          <t>Becker Conner</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Lena krassmann</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2987,14 +3552,29 @@
           <t xml:space="preserve">Rente Lisa </t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Leipelt Tim</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Acar Arda</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Graf, Justus</t>
+        </is>
+      </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Justin Hennig</t>
+          <t xml:space="preserve">Trampenau Nele </t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Pfeiffer Finn</t>
+          <t>Sobbeck Fiete</t>
         </is>
       </c>
     </row>
